--- a/lab05/Find_H_RO_JC.xlsx
+++ b/lab05/Find_H_RO_JC.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\PHY363\lab05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{B9D1952E-1631-4D08-BF50-CC179CF8B5FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="1" xr2:uid="{B9D1952E-1631-4D08-BF50-CC179CF8B5FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Color</t>
   </si>
@@ -39,9 +40,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>(ms)</t>
   </si>
   <si>
     <t>Percent error</t>
@@ -257,15 +255,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.2935779816513762</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8315018315018314</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6949152542372881</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -275,22 +264,13 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.71599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52831249999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20256250000000003</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1742-49AF-9C45-EBE9907861BB}"/>
+              <c16:uniqueId val="{00000002-BA38-448F-BC45-C01314F39554}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -466,11 +446,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1030,31 +1005,34 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{84FA71B9-C431-4BD0-AB5A-C5904E8A82AA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149412</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>59019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>433294</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>748</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668712" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED2A495-99D5-435D-8751-3ED80BC6C5FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6729109D-46EF-4439-A6DF-1D8A366B2AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1067,7 +1045,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1374,7 +1352,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,18 +1421,10 @@
       <c r="D5" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <f>1000*(1/436)</f>
-        <v>2.2935779816513762</v>
-      </c>
-      <c r="I5" s="1">
-        <f>1000*(1/546)</f>
-        <v>1.8315018315018314</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="F5" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G5" s="1">
         <f>1000*(1/590)</f>
         <v>1.6949152542372881</v>
       </c>
@@ -1469,15 +1439,16 @@
       <c r="D6" s="2">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.52831249999999996</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.20256250000000003</v>
-      </c>
+      <c r="F6" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1000*(1/546)</f>
+        <v>1.8315018315018314</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -1489,6 +1460,13 @@
       <c r="D7" s="2">
         <v>0.20799999999999999</v>
       </c>
+      <c r="F7" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1000*(1/436)</f>
+        <v>2.2935779816513762</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1619,7 +1597,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <f xml:space="preserve"> ((0.7427*10^-6)*(1.602 *10^-19))/(2.998*10^8)</f>
@@ -1628,7 +1606,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>6.6259999999999998E-34</v>
@@ -1636,7 +1614,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
         <f>(ABS(C26-C27)/C27)*100</f>
@@ -1646,6 +1624,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>